--- a/apcs_problem_solving/簡報解題/ch6/物品堆疊.xlsx
+++ b/apcs_problem_solving/簡報解題/ch6/物品堆疊.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wwyny-my.sharepoint.com/personal/dnzab_fuh_me/Documents/APCS/老師/解題/1_老師教材/ch6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xvpow\OneDrive - 市立百龄中学\APCS\老師\解題\1_老師教材\ch6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{84BE9074-7555-9744-B935-8FE92B3FE5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4603D7F-777B-964B-9CED-6BEB294B6F26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896B7587-4BE2-4A89-886F-56CE61AFE609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{6218FA15-46E2-C44D-BC3D-A8E5642E8F1B}"/>
+    <workbookView xWindow="19090" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{6218FA15-46E2-C44D-BC3D-A8E5642E8F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>w</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,27 +49,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4=4*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12=4*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21=(4+3)*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9=(4+5)*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6=3*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21=7*3</t>
+    <t>3*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先確定最小值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,8 +101,24 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +131,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -117,24 +151,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="2" builtinId="28"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,21 +494,18 @@
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
@@ -474,76 +516,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3">
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
@@ -554,15 +587,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>4</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -574,15 +607,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>4</v>
+      <c r="D8" t="s">
+        <v>3</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -594,38 +627,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>4</v>
       </c>
@@ -636,62 +668,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -699,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/apcs_problem_solving/簡報解題/ch6/物品堆疊.xlsx
+++ b/apcs_problem_solving/簡報解題/ch6/物品堆疊.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xvpow\OneDrive - 市立百龄中学\APCS\老師\解題\1_老師教材\ch6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896B7587-4BE2-4A89-886F-56CE61AFE609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E195BAF-32C9-4257-BD9B-DDCCBCB860C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10" windowWidth="19420" windowHeight="11020" xr2:uid="{6218FA15-46E2-C44D-BC3D-A8E5642E8F1B}"/>
+    <workbookView xWindow="-110" yWindow="10750" windowWidth="19420" windowHeight="11020" xr2:uid="{6218FA15-46E2-C44D-BC3D-A8E5642E8F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>w</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,22 @@
   </si>
   <si>
     <t>先確定最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作1交換後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,237 +507,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B306A5CF-C243-A845-BB6E-C10B21EE9405}">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H10">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H11">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
+      <c r="C13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
